--- a/biology/Histoire de la zoologie et de la botanique/Nikolaï_Orlov_(herpétologiste)/Nikolaï_Orlov_(herpétologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nikolaï_Orlov_(herpétologiste)/Nikolaï_Orlov_(herpétologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Orlov_(herp%C3%A9tologiste)</t>
+          <t>Nikolaï_Orlov_(herpétologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolaï Liutsianovitch Orlov est un herpétologiste russe né en 1952.
 Il travaille au département d'herpétologie de l'institut de zoologie de l'Académie des sciences à Saint-Pétersbourg.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Orlov_(herp%C3%A9tologiste)</t>
+          <t>Nikolaï_Orlov_(herpétologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rhacophorus orlovi Ziegler &amp; Köhler, 2001
 Vipera orlovi Tuniyev &amp; Ostrovskikh, 2001
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Orlov_(herp%C3%A9tologiste)</t>
+          <t>Nikolaï_Orlov_(herpétologiste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amolops spinapectoralis
